--- a/hu-stiles-kwh-solar-city-20170126/hu-stiles-kwh-solar-city-20170126.xlsx
+++ b/hu-stiles-kwh-solar-city-20170126/hu-stiles-kwh-solar-city-20170126.xlsx
@@ -14,25 +14,43 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="378">
   <si>
+    <t>date</t>
+  </si>
+  <si>
     <t>key</t>
   </si>
   <si>
+    <t>average</t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
-    <t>date</t>
+    <t>1/1/16</t>
   </si>
   <si>
     <t>headline</t>
   </si>
   <si>
-    <t>average</t>
-  </si>
-  <si>
     <t>The Headline For This Line Chart</t>
   </si>
   <si>
-    <t>1/1/16</t>
+    <t>1/2/16</t>
+  </si>
+  <si>
+    <t>1/3/16</t>
+  </si>
+  <si>
+    <t>1/4/16</t>
+  </si>
+  <si>
+    <t>1/5/16</t>
+  </si>
+  <si>
+    <t>1/6/16</t>
+  </si>
+  <si>
+    <t>1/7/16</t>
   </si>
   <si>
     <t>subhed</t>
@@ -41,100 +59,82 @@
     <t>This is default text in the copytext spreadsheet for this graphic. &lt;a href="https://docs.google.com/spreadsheets/d/{{ COPY_GOOGLE_DOC_KEY }}/edit" target="_blank"&gt;Edit this spreadsheet&lt;/a&gt; (created when you added the graphic) to update the data and text. Delete any rows you don't need, and add others as needed. Don't forget to &lt;code&gt;fab update_copy:{{ slug }}&lt;/code&gt; to update the text or visit &lt;a href="http://127.0.0.1:8000/graphics/{{ slug }}/?refresh=1" target="_top"&gt;&lt;code&gt;http://127.0.0.1:8000/graphics/{{ slug }}/?refresh=1&lt;/code&gt;&lt;/a&gt; to refresh the data every time you reload the page!</t>
   </si>
   <si>
+    <t>1/8/16</t>
+  </si>
+  <si>
+    <t>1/9/16</t>
+  </si>
+  <si>
+    <t>1/10/16</t>
+  </si>
+  <si>
+    <t>1/11/16</t>
+  </si>
+  <si>
+    <t>1/12/16</t>
+  </si>
+  <si>
+    <t>1/13/16</t>
+  </si>
+  <si>
+    <t>1/14/16</t>
+  </si>
+  <si>
+    <t>1/15/16</t>
+  </si>
+  <si>
+    <t>1/16/16</t>
+  </si>
+  <si>
+    <t>1/17/16</t>
+  </si>
+  <si>
+    <t>1/18/16</t>
+  </si>
+  <si>
+    <t>1/19/16</t>
+  </si>
+  <si>
     <t>footnote</t>
   </si>
   <si>
-    <t>1/2/16</t>
-  </si>
-  <si>
-    <t>1/3/16</t>
-  </si>
-  <si>
-    <t>1/4/16</t>
+    <t>1/20/16</t>
+  </si>
+  <si>
+    <t>1/21/16</t>
+  </si>
+  <si>
+    <t>1/22/16</t>
+  </si>
+  <si>
+    <t>1/23/16</t>
+  </si>
+  <si>
+    <t>1/24/16</t>
+  </si>
+  <si>
+    <t>1/25/16</t>
   </si>
   <si>
     <t>source</t>
   </si>
   <si>
-    <t>1/5/16</t>
-  </si>
-  <si>
-    <t>1/6/16</t>
-  </si>
-  <si>
-    <t>1/7/16</t>
+    <t>1/26/16</t>
+  </si>
+  <si>
+    <t>1/27/16</t>
+  </si>
+  <si>
+    <t>1/28/16</t>
+  </si>
+  <si>
+    <t>1/29/16</t>
   </si>
   <si>
     <t>credit</t>
   </si>
   <si>
     <t>Matt Stiles/&lt;a href="http://www.thedailyviz.com"&gt;The Daily Viz&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>1/8/16</t>
-  </si>
-  <si>
-    <t>1/9/16</t>
-  </si>
-  <si>
-    <t>1/10/16</t>
-  </si>
-  <si>
-    <t>1/11/16</t>
-  </si>
-  <si>
-    <t>1/12/16</t>
-  </si>
-  <si>
-    <t>1/13/16</t>
-  </si>
-  <si>
-    <t>1/14/16</t>
-  </si>
-  <si>
-    <t>1/15/16</t>
-  </si>
-  <si>
-    <t>1/16/16</t>
-  </si>
-  <si>
-    <t>1/17/16</t>
-  </si>
-  <si>
-    <t>1/18/16</t>
-  </si>
-  <si>
-    <t>1/19/16</t>
-  </si>
-  <si>
-    <t>1/20/16</t>
-  </si>
-  <si>
-    <t>1/21/16</t>
-  </si>
-  <si>
-    <t>1/22/16</t>
-  </si>
-  <si>
-    <t>1/23/16</t>
-  </si>
-  <si>
-    <t>1/24/16</t>
-  </si>
-  <si>
-    <t>1/25/16</t>
-  </si>
-  <si>
-    <t>1/26/16</t>
-  </si>
-  <si>
-    <t>1/27/16</t>
-  </si>
-  <si>
-    <t>1/28/16</t>
-  </si>
-  <si>
-    <t>1/29/16</t>
   </si>
   <si>
     <t>1/30/16</t>
@@ -1163,18 +1163,18 @@
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
     </font>
     <font>
       <b/>
-    </font>
-    <font>
       <sz val="14.0"/>
     </font>
     <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
     </font>
     <font/>
   </fonts>
@@ -1193,52 +1193,47 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1248,15 +1243,18 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1267,472 +1265,472 @@
   </cols>
   <sheetData>
     <row r="1" ht="33.0" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
     </row>
     <row r="2" ht="33.0" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
     </row>
     <row r="3" ht="33.0" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
+      <c r="A3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
     </row>
     <row r="4" ht="33.0" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
+      <c r="A4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
     </row>
     <row r="5" ht="33.0" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
+      <c r="A5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
     </row>
     <row r="6" ht="33.0" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
+      <c r="A6" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
     </row>
     <row r="7" ht="33.0" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
     </row>
     <row r="8" ht="33.0" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
     </row>
     <row r="9" ht="33.0" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
     </row>
     <row r="10" ht="33.0" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
     </row>
     <row r="11" ht="33.0" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
     </row>
     <row r="12" ht="33.0" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
     </row>
     <row r="13" ht="33.0" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
     </row>
     <row r="14" ht="33.0" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
     </row>
     <row r="15" ht="33.0" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
     </row>
     <row r="16" ht="33.0" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1741,6 +1739,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1751,2946 +1752,2946 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="9"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="9"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="s">
+      <c r="B8" s="9">
+        <v>16.02</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="9"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="s">
+      <c r="B9" s="9">
+        <v>15.256666666666666</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="10">
-        <v>16.02</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="B10" s="9">
+        <v>12.696666666666667</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="9">
+        <v>10.395</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="9">
+        <v>9.37</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="10">
-        <v>15.256666666666666</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="s">
+      <c r="B13" s="9">
+        <v>9.57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="10">
-        <v>12.696666666666667</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="s">
+      <c r="B14" s="9">
+        <v>7.363333333333333</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="10">
-        <v>10.395</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="7" t="s">
+      <c r="B15" s="9">
+        <v>10.156666666666666</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="10">
-        <v>9.37</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="7" t="s">
+      <c r="B16" s="9">
+        <v>12.998333333333333</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="10">
-        <v>9.57</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="7" t="s">
+      <c r="B17" s="9">
+        <v>14.36</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="10">
-        <v>7.363333333333333</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="7" t="s">
+      <c r="B18" s="9">
+        <v>14.518333333333333</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="10">
-        <v>10.156666666666666</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="7" t="s">
+      <c r="B19" s="9">
+        <v>11.649999999999999</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="10">
-        <v>12.998333333333333</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="10">
-        <v>14.36</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="7" t="s">
+      <c r="B20" s="9">
+        <v>14.586666666666664</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="10">
-        <v>14.518333333333333</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="7" t="s">
+      <c r="B21" s="9">
+        <v>14.718333333333334</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="10">
-        <v>11.649999999999999</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="7" t="s">
+      <c r="B22" s="9">
+        <v>13.586666666666668</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="10">
-        <v>14.586666666666664</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="7" t="s">
+      <c r="B23" s="9">
+        <v>14.116666666666665</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="10">
-        <v>14.718333333333334</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="7" t="s">
+      <c r="B24" s="9">
+        <v>12.876666666666665</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="10">
-        <v>13.586666666666668</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="7" t="s">
+      <c r="B25" s="9">
+        <v>12.386666666666665</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="10">
-        <v>14.116666666666665</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="10">
-        <v>12.876666666666665</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="7" t="s">
+      <c r="B26" s="9">
+        <v>8.611666666666666</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="10">
-        <v>12.386666666666665</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="7" t="s">
+      <c r="B27" s="9">
+        <v>5.859999999999999</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="10">
-        <v>8.611666666666666</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="7" t="s">
+      <c r="B28" s="9">
+        <v>4.683999999999999</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="10">
-        <v>5.859999999999999</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="7" t="s">
+      <c r="B29" s="9">
+        <v>4.35</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="10">
-        <v>4.683999999999999</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="10">
-        <v>4.35</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <v>8.052</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="9">
         <v>11.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="9">
         <v>15.482</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="9">
         <v>16.404999999999998</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="9">
         <v>16.985</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="9">
         <v>18.741666666666664</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="9">
         <v>15.498333333333333</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="9">
         <v>13.835</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="9">
         <v>12.628333333333332</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="9">
         <v>12.221666666666666</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="9">
         <v>12.108333333333334</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="9">
         <v>11.85</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="9">
         <v>12.56</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="9">
         <v>15.008333333333333</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="9">
         <v>16.831666666666667</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="9">
         <v>17.235</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="9">
         <v>18.81833333333333</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="9">
         <v>20.043333333333337</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="9">
         <v>19.108333333333338</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="9">
         <v>16.758333333333333</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="9">
         <v>12.43666666666667</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="9">
         <v>17.135</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="9">
         <v>16.17833333333333</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="9">
         <v>13.448333333333332</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="9">
         <v>14.284999999999998</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55" s="9">
         <v>16.871666666666666</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B56" s="9">
         <v>17.428333333333335</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57" s="9">
         <v>9.528333333333334</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B58" s="9">
         <v>8.495000000000001</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59" s="9">
         <v>11.745</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60" s="9">
         <v>15.541666666666666</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61" s="9">
         <v>17.243333333333332</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B62" s="9">
         <v>20.25</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63" s="9">
         <v>25.101666666666663</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="9">
         <v>28.823333333333334</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65" s="9">
         <v>27.139999999999997</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B66" s="10">
+      <c r="B66" s="9">
         <v>23.995</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B67" s="9">
         <v>21.17833333333333</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B68" s="10">
+      <c r="B68" s="9">
         <v>19.424999999999997</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B69" s="10">
+      <c r="B69" s="9">
         <v>19.656666666666666</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B70" s="10">
+      <c r="B70" s="9">
         <v>18.75</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B71" s="10">
+      <c r="B71" s="9">
         <v>20.11833333333333</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B72" s="9">
         <v>21.933333333333334</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B73" s="10">
+      <c r="B73" s="9">
         <v>22.653333333333336</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B74" s="10">
+      <c r="B74" s="9">
         <v>21.77333333333333</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B75" s="10">
+      <c r="B75" s="9">
         <v>17.145</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B76" s="10">
+      <c r="B76" s="9">
         <v>13.985</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B77" s="9">
         <v>11.121666666666668</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B78" s="10">
+      <c r="B78" s="9">
         <v>12.663333333333332</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B79" s="10">
+      <c r="B79" s="9">
         <v>13.511666666666665</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B80" s="10">
+      <c r="B80" s="9">
         <v>18.168333333333333</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B81" s="10">
+      <c r="B81" s="9">
         <v>17.986666666666668</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B82" s="10">
+      <c r="B82" s="9">
         <v>18.371666666666666</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B83" s="10">
+      <c r="B83" s="9">
         <v>22.326666666666668</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B84" s="10">
+      <c r="B84" s="9">
         <v>22.075</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B85" s="10">
+      <c r="B85" s="9">
         <v>22.775000000000002</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B86" s="10">
+      <c r="B86" s="9">
         <v>22.74</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B87" s="10">
+      <c r="B87" s="9">
         <v>24.22333333333334</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B88" s="10">
+      <c r="B88" s="9">
         <v>28.94</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B89" s="10">
+      <c r="B89" s="9">
         <v>23.939999999999998</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B90" s="10">
+      <c r="B90" s="9">
         <v>24.429999999999996</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B91" s="10">
+      <c r="B91" s="9">
         <v>26.19333333333333</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B92" s="10">
+      <c r="B92" s="9">
         <v>26.735</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B93" s="10">
+      <c r="B93" s="9">
         <v>27.74166666666667</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B94" s="10">
+      <c r="B94" s="9">
         <v>25.57166666666667</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="7" t="s">
+      <c r="A95" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B95" s="10">
+      <c r="B95" s="9">
         <v>26.901666666666667</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B96" s="10">
+      <c r="B96" s="9">
         <v>28.340000000000003</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B97" s="10">
+      <c r="B97" s="9">
         <v>25.205000000000002</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B98" s="10">
+      <c r="B98" s="9">
         <v>25.745</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B99" s="10">
+      <c r="B99" s="9">
         <v>28.883333333333336</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B100" s="10">
+      <c r="B100" s="9">
         <v>27.19333333333334</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B101" s="10">
+      <c r="B101" s="9">
         <v>29.63</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="7" t="s">
+      <c r="A102" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B102" s="10">
+      <c r="B102" s="9">
         <v>26.075</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="7" t="s">
+      <c r="A103" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B103" s="10">
+      <c r="B103" s="9">
         <v>29.03</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="7" t="s">
+      <c r="A104" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B104" s="10">
+      <c r="B104" s="9">
         <v>26.363333333333333</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B105" s="10">
+      <c r="B105" s="9">
         <v>24.258333333333336</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B106" s="10">
+      <c r="B106" s="9">
         <v>28.450000000000003</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="7" t="s">
+      <c r="A107" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B107" s="10">
+      <c r="B107" s="9">
         <v>29.543333333333337</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="7" t="s">
+      <c r="A108" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B108" s="10">
+      <c r="B108" s="9">
         <v>32.66166666666667</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="7" t="s">
+      <c r="A109" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B109" s="10">
+      <c r="B109" s="9">
         <v>32.4</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="7" t="s">
+      <c r="A110" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B110" s="10">
+      <c r="B110" s="9">
         <v>34.295</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="7" t="s">
+      <c r="A111" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B111" s="10">
+      <c r="B111" s="9">
         <v>35.96</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="7" t="s">
+      <c r="A112" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B112" s="10">
+      <c r="B112" s="9">
         <v>34.585</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="7" t="s">
+      <c r="A113" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B113" s="10">
+      <c r="B113" s="9">
         <v>34.54</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B114" s="10">
+      <c r="B114" s="9">
         <v>32.035000000000004</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="7" t="s">
+      <c r="A115" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B115" s="10">
+      <c r="B115" s="9">
         <v>28.281666666666666</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="7" t="s">
+      <c r="A116" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B116" s="10">
+      <c r="B116" s="9">
         <v>24.903333333333336</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="7" t="s">
+      <c r="A117" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B117" s="10">
+      <c r="B117" s="9">
         <v>25.27333333333333</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="7" t="s">
+      <c r="A118" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B118" s="10">
+      <c r="B118" s="9">
         <v>25.73166666666667</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="7" t="s">
+      <c r="A119" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B119" s="10">
+      <c r="B119" s="9">
         <v>23.953333333333333</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="7" t="s">
+      <c r="A120" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B120" s="10">
+      <c r="B120" s="9">
         <v>21.13666666666667</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="7" t="s">
+      <c r="A121" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B121" s="10">
+      <c r="B121" s="9">
         <v>19.413333333333334</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="7" t="s">
+      <c r="A122" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B122" s="10">
+      <c r="B122" s="9">
         <v>17.89166666666667</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="7" t="s">
+      <c r="A123" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B123" s="10">
+      <c r="B123" s="9">
         <v>13.053333333333335</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="7" t="s">
+      <c r="A124" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B124" s="10">
+      <c r="B124" s="9">
         <v>8.558333333333335</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="7" t="s">
+      <c r="A125" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B125" s="10">
+      <c r="B125" s="9">
         <v>8.411666666666667</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="7" t="s">
+      <c r="A126" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B126" s="10">
+      <c r="B126" s="9">
         <v>10.836666666666668</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="7" t="s">
+      <c r="A127" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B127" s="10">
+      <c r="B127" s="9">
         <v>12.051666666666668</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="7" t="s">
+      <c r="A128" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B128" s="10">
+      <c r="B128" s="9">
         <v>12.048333333333332</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="7" t="s">
+      <c r="A129" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B129" s="10">
+      <c r="B129" s="9">
         <v>11.863333333333332</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="7" t="s">
+      <c r="A130" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B130" s="10">
+      <c r="B130" s="9">
         <v>14.253333333333332</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="7" t="s">
+      <c r="A131" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B131" s="10">
+      <c r="B131" s="9">
         <v>15.831666666666665</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="7" t="s">
+      <c r="A132" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B132" s="10">
+      <c r="B132" s="9">
         <v>14.493333333333332</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="7" t="s">
+      <c r="A133" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B133" s="10">
+      <c r="B133" s="9">
         <v>15.149999999999999</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="7" t="s">
+      <c r="A134" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B134" s="10">
+      <c r="B134" s="9">
         <v>15.01</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="7" t="s">
+      <c r="A135" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B135" s="10">
+      <c r="B135" s="9">
         <v>15.515</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="7" t="s">
+      <c r="A136" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B136" s="10">
+      <c r="B136" s="9">
         <v>14.333333333333334</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="7" t="s">
+      <c r="A137" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B137" s="10">
+      <c r="B137" s="9">
         <v>12.636666666666668</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="7" t="s">
+      <c r="A138" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B138" s="10">
+      <c r="B138" s="9">
         <v>15.790000000000001</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="7" t="s">
+      <c r="A139" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B139" s="10">
+      <c r="B139" s="9">
         <v>19.781666666666666</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="7" t="s">
+      <c r="A140" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B140" s="10">
+      <c r="B140" s="9">
         <v>19.886666666666667</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="7" t="s">
+      <c r="A141" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B141" s="10">
+      <c r="B141" s="9">
         <v>21.01666666666667</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="7" t="s">
+      <c r="A142" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B142" s="10">
+      <c r="B142" s="9">
         <v>22.48</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="7" t="s">
+      <c r="A143" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B143" s="10">
+      <c r="B143" s="9">
         <v>24.388333333333332</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="7" t="s">
+      <c r="A144" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B144" s="10">
+      <c r="B144" s="9">
         <v>20.40833333333333</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="7" t="s">
+      <c r="A145" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B145" s="10">
+      <c r="B145" s="9">
         <v>15.176666666666668</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="7" t="s">
+      <c r="A146" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B146" s="10">
+      <c r="B146" s="9">
         <v>17.813333333333333</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="7" t="s">
+      <c r="A147" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B147" s="10">
+      <c r="B147" s="9">
         <v>20.875</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="7" t="s">
+      <c r="A148" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B148" s="10">
+      <c r="B148" s="9">
         <v>22.909999999999997</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="7" t="s">
+      <c r="A149" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B149" s="10">
+      <c r="B149" s="9">
         <v>22.186666666666664</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="7" t="s">
+      <c r="A150" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B150" s="10">
+      <c r="B150" s="9">
         <v>26.411666666666665</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="7" t="s">
+      <c r="A151" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B151" s="10">
+      <c r="B151" s="9">
         <v>30.765</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="7" t="s">
+      <c r="A152" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B152" s="10">
+      <c r="B152" s="9">
         <v>30.895</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="7" t="s">
+      <c r="A153" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B153" s="10">
+      <c r="B153" s="9">
         <v>28.251666666666665</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="7" t="s">
+      <c r="A154" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B154" s="10">
+      <c r="B154" s="9">
         <v>27.218333333333334</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="7" t="s">
+      <c r="A155" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B155" s="10">
+      <c r="B155" s="9">
         <v>27.438333333333333</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="7" t="s">
+      <c r="A156" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B156" s="10">
+      <c r="B156" s="9">
         <v>25.738333333333333</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="7" t="s">
+      <c r="A157" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B157" s="10">
+      <c r="B157" s="9">
         <v>22.34</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="7" t="s">
+      <c r="A158" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B158" s="10">
+      <c r="B158" s="9">
         <v>20.77333333333333</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="7" t="s">
+      <c r="A159" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B159" s="10">
+      <c r="B159" s="9">
         <v>20.59</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="7" t="s">
+      <c r="A160" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B160" s="10">
+      <c r="B160" s="9">
         <v>21.49833333333333</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="7" t="s">
+      <c r="A161" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B161" s="10">
+      <c r="B161" s="9">
         <v>20.978333333333335</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="7" t="s">
+      <c r="A162" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B162" s="10">
+      <c r="B162" s="9">
         <v>23.046666666666667</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="7" t="s">
+      <c r="A163" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B163" s="10">
+      <c r="B163" s="9">
         <v>26.923333333333336</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="7" t="s">
+      <c r="A164" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B164" s="10">
+      <c r="B164" s="9">
         <v>30.483333333333334</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="7" t="s">
+      <c r="A165" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B165" s="10">
+      <c r="B165" s="9">
         <v>32.24333333333333</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="7" t="s">
+      <c r="A166" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B166" s="10">
+      <c r="B166" s="9">
         <v>32.45666666666667</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="7" t="s">
+      <c r="A167" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B167" s="10">
+      <c r="B167" s="9">
         <v>33.33166666666667</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="7" t="s">
+      <c r="A168" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B168" s="10">
+      <c r="B168" s="9">
         <v>33.449999999999996</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="7" t="s">
+      <c r="A169" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B169" s="10">
+      <c r="B169" s="9">
         <v>30.02</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="7" t="s">
+      <c r="A170" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B170" s="10">
+      <c r="B170" s="9">
         <v>27.933333333333334</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="7" t="s">
+      <c r="A171" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B171" s="10">
+      <c r="B171" s="9">
         <v>28.096666666666668</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="7" t="s">
+      <c r="A172" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B172" s="10">
+      <c r="B172" s="9">
         <v>28.266666666666666</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="7" t="s">
+      <c r="A173" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B173" s="10">
+      <c r="B173" s="9">
         <v>27.343333333333334</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="7" t="s">
+      <c r="A174" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B174" s="10">
+      <c r="B174" s="9">
         <v>27.166666666666668</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="7" t="s">
+      <c r="A175" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B175" s="10">
+      <c r="B175" s="9">
         <v>27.375</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="7" t="s">
+      <c r="A176" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B176" s="10">
+      <c r="B176" s="9">
         <v>27.95833333333333</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="7" t="s">
+      <c r="A177" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B177" s="10">
+      <c r="B177" s="9">
         <v>25.596666666666664</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="7" t="s">
+      <c r="A178" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B178" s="10">
+      <c r="B178" s="9">
         <v>23.76</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="7" t="s">
+      <c r="A179" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B179" s="10">
+      <c r="B179" s="9">
         <v>24.411666666666672</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="7" t="s">
+      <c r="A180" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B180" s="10">
+      <c r="B180" s="9">
         <v>24.5</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="7" t="s">
+      <c r="A181" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B181" s="10">
+      <c r="B181" s="9">
         <v>26.478333333333335</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="7" t="s">
+      <c r="A182" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B182" s="10">
+      <c r="B182" s="9">
         <v>25.23</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="7" t="s">
+      <c r="A183" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B183" s="10">
+      <c r="B183" s="9">
         <v>28.575</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="7" t="s">
+      <c r="A184" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B184" s="10">
+      <c r="B184" s="9">
         <v>29.866666666666664</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="7" t="s">
+      <c r="A185" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B185" s="10">
+      <c r="B185" s="9">
         <v>28.636666666666667</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="7" t="s">
+      <c r="A186" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B186" s="10">
+      <c r="B186" s="9">
         <v>28.688333333333333</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="7" t="s">
+      <c r="A187" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B187" s="10">
+      <c r="B187" s="9">
         <v>26.694999999999997</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="7" t="s">
+      <c r="A188" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B188" s="10">
+      <c r="B188" s="9">
         <v>24.456666666666667</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="7" t="s">
+      <c r="A189" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B189" s="10">
+      <c r="B189" s="9">
         <v>23.593333333333334</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="7" t="s">
+      <c r="A190" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B190" s="10">
+      <c r="B190" s="9">
         <v>23.12666666666667</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="7" t="s">
+      <c r="A191" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B191" s="10">
+      <c r="B191" s="9">
         <v>23.653333333333336</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="7" t="s">
+      <c r="A192" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B192" s="10">
+      <c r="B192" s="9">
         <v>21.823333333333334</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="7" t="s">
+      <c r="A193" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B193" s="10">
+      <c r="B193" s="9">
         <v>24.02</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="7" t="s">
+      <c r="A194" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B194" s="10">
+      <c r="B194" s="9">
         <v>28.453333333333333</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="7" t="s">
+      <c r="A195" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B195" s="10">
+      <c r="B195" s="9">
         <v>28.798333333333332</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="7" t="s">
+      <c r="A196" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B196" s="10">
+      <c r="B196" s="9">
         <v>27.7</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="7" t="s">
+      <c r="A197" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B197" s="10">
+      <c r="B197" s="9">
         <v>26.070000000000004</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="7" t="s">
+      <c r="A198" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B198" s="10">
+      <c r="B198" s="9">
         <v>26.82166666666667</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="7" t="s">
+      <c r="A199" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B199" s="10">
+      <c r="B199" s="9">
         <v>25.738333333333333</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="7" t="s">
+      <c r="A200" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B200" s="10">
+      <c r="B200" s="9">
         <v>24.73</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="7" t="s">
+      <c r="A201" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B201" s="10">
+      <c r="B201" s="9">
         <v>24.868333333333336</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="7" t="s">
+      <c r="A202" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B202" s="10">
+      <c r="B202" s="9">
         <v>25.38</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="7" t="s">
+      <c r="A203" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B203" s="10">
+      <c r="B203" s="9">
         <v>26.046666666666667</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="7" t="s">
+      <c r="A204" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B204" s="10">
+      <c r="B204" s="9">
         <v>26.365</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="7" t="s">
+      <c r="A205" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B205" s="10">
+      <c r="B205" s="9">
         <v>27.593333333333337</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="7" t="s">
+      <c r="A206" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B206" s="10">
+      <c r="B206" s="9">
         <v>27.911666666666672</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="7" t="s">
+      <c r="A207" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B207" s="10">
+      <c r="B207" s="9">
         <v>27.34</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="7" t="s">
+      <c r="A208" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B208" s="10">
+      <c r="B208" s="9">
         <v>28.39833333333333</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="7" t="s">
+      <c r="A209" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B209" s="10">
+      <c r="B209" s="9">
         <v>29.12</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="7" t="s">
+      <c r="A210" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B210" s="10">
+      <c r="B210" s="9">
         <v>28.318333333333328</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="7" t="s">
+      <c r="A211" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B211" s="10">
+      <c r="B211" s="9">
         <v>27.41333333333333</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="7" t="s">
+      <c r="A212" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B212" s="10">
+      <c r="B212" s="9">
         <v>26.744999999999994</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="7" t="s">
+      <c r="A213" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B213" s="10">
+      <c r="B213" s="9">
         <v>26.351666666666663</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="7" t="s">
+      <c r="A214" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B214" s="10">
+      <c r="B214" s="9">
         <v>24.363333333333333</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="7" t="s">
+      <c r="A215" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="B215" s="10">
+      <c r="B215" s="9">
         <v>24.395</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="7" t="s">
+      <c r="A216" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B216" s="10">
+      <c r="B216" s="9">
         <v>23.75833333333333</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="7" t="s">
+      <c r="A217" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B217" s="10">
+      <c r="B217" s="9">
         <v>23.963333333333335</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="7" t="s">
+      <c r="A218" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B218" s="10">
+      <c r="B218" s="9">
         <v>24.108333333333334</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="7" t="s">
+      <c r="A219" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B219" s="10">
+      <c r="B219" s="9">
         <v>24.776666666666667</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="7" t="s">
+      <c r="A220" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B220" s="10">
+      <c r="B220" s="9">
         <v>24.316666666666666</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="7" t="s">
+      <c r="A221" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B221" s="10">
+      <c r="B221" s="9">
         <v>23.876666666666665</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="7" t="s">
+      <c r="A222" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B222" s="10">
+      <c r="B222" s="9">
         <v>25.59166666666667</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="7" t="s">
+      <c r="A223" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B223" s="10">
+      <c r="B223" s="9">
         <v>24.47</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="7" t="s">
+      <c r="A224" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B224" s="10">
+      <c r="B224" s="9">
         <v>22.188333333333336</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="7" t="s">
+      <c r="A225" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B225" s="10">
+      <c r="B225" s="9">
         <v>21.60166666666667</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="7" t="s">
+      <c r="A226" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B226" s="10">
+      <c r="B226" s="9">
         <v>23.915000000000003</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="7" t="s">
+      <c r="A227" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B227" s="10">
+      <c r="B227" s="9">
         <v>24.44666666666667</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="7" t="s">
+      <c r="A228" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B228" s="10">
+      <c r="B228" s="9">
         <v>24.198333333333334</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="7" t="s">
+      <c r="A229" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B229" s="10">
+      <c r="B229" s="9">
         <v>25.24666666666667</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="7" t="s">
+      <c r="A230" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B230" s="10">
+      <c r="B230" s="9">
         <v>27.783333333333335</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="7" t="s">
+      <c r="A231" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B231" s="10">
+      <c r="B231" s="9">
         <v>28.159999999999997</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="7" t="s">
+      <c r="A232" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B232" s="10">
+      <c r="B232" s="9">
         <v>27.911666666666665</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="7" t="s">
+      <c r="A233" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B233" s="10">
+      <c r="B233" s="9">
         <v>27.998333333333335</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="7" t="s">
+      <c r="A234" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B234" s="10">
+      <c r="B234" s="9">
         <v>27.790000000000003</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="7" t="s">
+      <c r="A235" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B235" s="10">
+      <c r="B235" s="9">
         <v>28.573333333333334</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="7" t="s">
+      <c r="A236" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B236" s="10">
+      <c r="B236" s="9">
         <v>26.621666666666666</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="7" t="s">
+      <c r="A237" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B237" s="10">
+      <c r="B237" s="9">
         <v>25.881666666666664</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="7" t="s">
+      <c r="A238" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B238" s="10">
+      <c r="B238" s="9">
         <v>25.825000000000003</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="7" t="s">
+      <c r="A239" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B239" s="10">
+      <c r="B239" s="9">
         <v>26.393333333333334</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="7" t="s">
+      <c r="A240" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B240" s="10">
+      <c r="B240" s="9">
         <v>25.816666666666666</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="7" t="s">
+      <c r="A241" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B241" s="10">
+      <c r="B241" s="9">
         <v>25.736666666666665</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="7" t="s">
+      <c r="A242" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B242" s="10">
+      <c r="B242" s="9">
         <v>28.794999999999998</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="7" t="s">
+      <c r="A243" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B243" s="10">
+      <c r="B243" s="9">
         <v>29.71333333333334</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="7" t="s">
+      <c r="A244" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B244" s="10">
+      <c r="B244" s="9">
         <v>29.563333333333333</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="7" t="s">
+      <c r="A245" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B245" s="10">
+      <c r="B245" s="9">
         <v>29.084999999999997</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="7" t="s">
+      <c r="A246" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B246" s="10">
+      <c r="B246" s="9">
         <v>29.855</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="7" t="s">
+      <c r="A247" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B247" s="10">
+      <c r="B247" s="9">
         <v>26.72666666666667</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="7" t="s">
+      <c r="A248" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B248" s="10">
+      <c r="B248" s="9">
         <v>26.115</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="7" t="s">
+      <c r="A249" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B249" s="10">
+      <c r="B249" s="9">
         <v>23.631666666666664</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="7" t="s">
+      <c r="A250" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B250" s="10">
+      <c r="B250" s="9">
         <v>23.63333333333333</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="7" t="s">
+      <c r="A251" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B251" s="10">
+      <c r="B251" s="9">
         <v>23.741666666666664</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="7" t="s">
+      <c r="A252" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="B252" s="10">
+      <c r="B252" s="9">
         <v>23.98</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="7" t="s">
+      <c r="A253" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B253" s="10">
+      <c r="B253" s="9">
         <v>26.370000000000005</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="7" t="s">
+      <c r="A254" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B254" s="10">
+      <c r="B254" s="9">
         <v>26.150000000000002</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="7" t="s">
+      <c r="A255" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B255" s="10">
+      <c r="B255" s="9">
         <v>28.17</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="7" t="s">
+      <c r="A256" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B256" s="10">
+      <c r="B256" s="9">
         <v>28.248333333333335</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="7" t="s">
+      <c r="A257" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B257" s="10">
+      <c r="B257" s="9">
         <v>27.026666666666667</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="7" t="s">
+      <c r="A258" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B258" s="10">
+      <c r="B258" s="9">
         <v>26.80666666666666</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="7" t="s">
+      <c r="A259" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B259" s="10">
+      <c r="B259" s="9">
         <v>27.753333333333334</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="7" t="s">
+      <c r="A260" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B260" s="10">
+      <c r="B260" s="9">
         <v>28.475000000000005</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="7" t="s">
+      <c r="A261" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B261" s="10">
+      <c r="B261" s="9">
         <v>27.06</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="7" t="s">
+      <c r="A262" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B262" s="10">
+      <c r="B262" s="9">
         <v>25.968333333333334</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="7" t="s">
+      <c r="A263" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B263" s="10">
+      <c r="B263" s="9">
         <v>25.055000000000003</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="7" t="s">
+      <c r="A264" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B264" s="10">
+      <c r="B264" s="9">
         <v>23.933333333333337</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="7" t="s">
+      <c r="A265" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B265" s="10">
+      <c r="B265" s="9">
         <v>19.311666666666667</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="7" t="s">
+      <c r="A266" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B266" s="10">
+      <c r="B266" s="9">
         <v>16.183333333333337</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="7" t="s">
+      <c r="A267" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B267" s="10">
+      <c r="B267" s="9">
         <v>15.261666666666668</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="7" t="s">
+      <c r="A268" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="B268" s="10">
+      <c r="B268" s="9">
         <v>16.785</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="7" t="s">
+      <c r="A269" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B269" s="10">
+      <c r="B269" s="9">
         <v>18.926666666666666</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="7" t="s">
+      <c r="A270" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B270" s="10">
+      <c r="B270" s="9">
         <v>16.506666666666668</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="7" t="s">
+      <c r="A271" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B271" s="10">
+      <c r="B271" s="9">
         <v>21.035</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="7" t="s">
+      <c r="A272" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B272" s="10">
+      <c r="B272" s="9">
         <v>19.515</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="7" t="s">
+      <c r="A273" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B273" s="10">
+      <c r="B273" s="9">
         <v>20.135</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="7" t="s">
+      <c r="A274" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B274" s="10">
+      <c r="B274" s="9">
         <v>15.715000000000002</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="7" t="s">
+      <c r="A275" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B275" s="10">
+      <c r="B275" s="9">
         <v>11.298333333333334</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="7" t="s">
+      <c r="A276" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B276" s="10">
+      <c r="B276" s="9">
         <v>10.716666666666667</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="7" t="s">
+      <c r="A277" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B277" s="10">
+      <c r="B277" s="9">
         <v>6.446666666666668</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="7" t="s">
+      <c r="A278" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B278" s="10">
+      <c r="B278" s="9">
         <v>7.52</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="7" t="s">
+      <c r="A279" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B279" s="10">
+      <c r="B279" s="9">
         <v>8.646666666666667</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="7" t="s">
+      <c r="A280" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B280" s="10">
+      <c r="B280" s="9">
         <v>11.450000000000001</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="7" t="s">
+      <c r="A281" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B281" s="10">
+      <c r="B281" s="9">
         <v>15.011666666666665</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="7" t="s">
+      <c r="A282" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B282" s="10">
+      <c r="B282" s="9">
         <v>15.568333333333333</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="7" t="s">
+      <c r="A283" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B283" s="10">
+      <c r="B283" s="9">
         <v>16.296666666666667</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="7" t="s">
+      <c r="A284" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B284" s="10">
+      <c r="B284" s="9">
         <v>14.978333333333333</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="7" t="s">
+      <c r="A285" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B285" s="10">
+      <c r="B285" s="9">
         <v>14.770000000000001</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="7" t="s">
+      <c r="A286" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="B286" s="10">
+      <c r="B286" s="9">
         <v>16.30666666666667</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="7" t="s">
+      <c r="A287" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B287" s="10">
+      <c r="B287" s="9">
         <v>16.926666666666666</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="7" t="s">
+      <c r="A288" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="B288" s="10">
+      <c r="B288" s="9">
         <v>19.615</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="7" t="s">
+      <c r="A289" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="B289" s="10">
+      <c r="B289" s="9">
         <v>20.198333333333334</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="7" t="s">
+      <c r="A290" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="B290" s="10">
+      <c r="B290" s="9">
         <v>24.505</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="7" t="s">
+      <c r="A291" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B291" s="10">
+      <c r="B291" s="9">
         <v>25.18166666666667</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="7" t="s">
+      <c r="A292" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="B292" s="10">
+      <c r="B292" s="9">
         <v>23.790000000000003</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="7" t="s">
+      <c r="A293" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B293" s="10">
+      <c r="B293" s="9">
         <v>22.886666666666667</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="7" t="s">
+      <c r="A294" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B294" s="10">
+      <c r="B294" s="9">
         <v>22.786666666666665</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="7" t="s">
+      <c r="A295" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="B295" s="10">
+      <c r="B295" s="9">
         <v>23.69666666666667</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="7" t="s">
+      <c r="A296" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B296" s="10">
+      <c r="B296" s="9">
         <v>22.224999999999998</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="7" t="s">
+      <c r="A297" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B297" s="10">
+      <c r="B297" s="9">
         <v>20.416666666666668</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="7" t="s">
+      <c r="A298" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B298" s="10">
+      <c r="B298" s="9">
         <v>20.361666666666665</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="7" t="s">
+      <c r="A299" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B299" s="10">
+      <c r="B299" s="9">
         <v>20.44</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="7" t="s">
+      <c r="A300" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B300" s="10">
+      <c r="B300" s="9">
         <v>18.568333333333335</v>
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="7" t="s">
+      <c r="A301" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B301" s="10">
+      <c r="B301" s="9">
         <v>19.763333333333335</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="7" t="s">
+      <c r="A302" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B302" s="10">
+      <c r="B302" s="9">
         <v>20.406666666666666</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="7" t="s">
+      <c r="A303" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B303" s="10">
+      <c r="B303" s="9">
         <v>18.341666666666665</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="7" t="s">
+      <c r="A304" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B304" s="10">
+      <c r="B304" s="9">
         <v>18.93</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="7" t="s">
+      <c r="A305" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B305" s="10">
+      <c r="B305" s="9">
         <v>18.688333333333336</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="7" t="s">
+      <c r="A306" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B306" s="10">
+      <c r="B306" s="9">
         <v>18.375</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="7" t="s">
+      <c r="A307" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B307" s="10">
+      <c r="B307" s="9">
         <v>17.543333333333333</v>
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="7" t="s">
+      <c r="A308" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B308" s="10">
+      <c r="B308" s="9">
         <v>14.833333333333334</v>
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="7" t="s">
+      <c r="A309" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B309" s="10">
+      <c r="B309" s="9">
         <v>16.816666666666666</v>
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="7" t="s">
+      <c r="A310" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B310" s="10">
+      <c r="B310" s="9">
         <v>14.478333333333332</v>
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="7" t="s">
+      <c r="A311" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B311" s="10">
+      <c r="B311" s="9">
         <v>14.423333333333334</v>
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="7" t="s">
+      <c r="A312" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B312" s="10">
+      <c r="B312" s="9">
         <v>16.24</v>
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="7" t="s">
+      <c r="A313" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B313" s="10">
+      <c r="B313" s="9">
         <v>16.365</v>
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="7" t="s">
+      <c r="A314" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="B314" s="10">
+      <c r="B314" s="9">
         <v>18.858333333333334</v>
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="7" t="s">
+      <c r="A315" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B315" s="10">
+      <c r="B315" s="9">
         <v>19.605</v>
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="7" t="s">
+      <c r="A316" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B316" s="10">
+      <c r="B316" s="9">
         <v>19.175</v>
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="7" t="s">
+      <c r="A317" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B317" s="10">
+      <c r="B317" s="9">
         <v>19.15666666666667</v>
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="7" t="s">
+      <c r="A318" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B318" s="10">
+      <c r="B318" s="9">
         <v>18.593333333333337</v>
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="7" t="s">
+      <c r="A319" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B319" s="10">
+      <c r="B319" s="9">
         <v>18.62</v>
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="7" t="s">
+      <c r="A320" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B320" s="10">
+      <c r="B320" s="9">
         <v>18.436666666666667</v>
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="7" t="s">
+      <c r="A321" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B321" s="10">
+      <c r="B321" s="9">
         <v>16.998333333333335</v>
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="7" t="s">
+      <c r="A322" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="B322" s="10">
+      <c r="B322" s="9">
         <v>17.425</v>
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="7" t="s">
+      <c r="A323" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="B323" s="10">
+      <c r="B323" s="9">
         <v>15.933333333333335</v>
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="7" t="s">
+      <c r="A324" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B324" s="10">
+      <c r="B324" s="9">
         <v>16.09166666666667</v>
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="7" t="s">
+      <c r="A325" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B325" s="10">
+      <c r="B325" s="9">
         <v>15.571666666666667</v>
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="7" t="s">
+      <c r="A326" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="B326" s="10">
+      <c r="B326" s="9">
         <v>15.183333333333335</v>
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="7" t="s">
+      <c r="A327" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B327" s="10">
+      <c r="B327" s="9">
         <v>15.941666666666668</v>
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="7" t="s">
+      <c r="A328" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B328" s="10">
+      <c r="B328" s="9">
         <v>17.7</v>
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="7" t="s">
+      <c r="A329" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B329" s="10">
+      <c r="B329" s="9">
         <v>19.175</v>
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="7" t="s">
+      <c r="A330" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B330" s="10">
+      <c r="B330" s="9">
         <v>19.103333333333335</v>
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="7" t="s">
+      <c r="A331" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B331" s="10">
+      <c r="B331" s="9">
         <v>17.381666666666664</v>
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="7" t="s">
+      <c r="A332" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B332" s="10">
+      <c r="B332" s="9">
         <v>15.108333333333334</v>
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="7" t="s">
+      <c r="A333" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B333" s="10">
+      <c r="B333" s="9">
         <v>14.376666666666665</v>
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="7" t="s">
+      <c r="A334" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="B334" s="10">
+      <c r="B334" s="9">
         <v>13.981666666666664</v>
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="7" t="s">
+      <c r="A335" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="B335" s="10">
+      <c r="B335" s="9">
         <v>12.003333333333332</v>
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="7" t="s">
+      <c r="A336" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B336" s="10">
+      <c r="B336" s="9">
         <v>9.08</v>
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="7" t="s">
+      <c r="A337" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B337" s="10">
+      <c r="B337" s="9">
         <v>8.13</v>
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="7" t="s">
+      <c r="A338" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B338" s="10">
+      <c r="B338" s="9">
         <v>10.538333333333334</v>
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="7" t="s">
+      <c r="A339" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="B339" s="10">
+      <c r="B339" s="9">
         <v>11.481666666666667</v>
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="7" t="s">
+      <c r="A340" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="B340" s="10">
+      <c r="B340" s="9">
         <v>11.425000000000002</v>
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="7" t="s">
+      <c r="A341" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="B341" s="10">
+      <c r="B341" s="9">
         <v>11.106666666666667</v>
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="7" t="s">
+      <c r="A342" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="B342" s="10">
+      <c r="B342" s="9">
         <v>13.131666666666668</v>
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="7" t="s">
+      <c r="A343" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="B343" s="10">
+      <c r="B343" s="9">
         <v>13.016666666666666</v>
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="7" t="s">
+      <c r="A344" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="B344" s="10">
+      <c r="B344" s="9">
         <v>12.171666666666667</v>
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="7" t="s">
+      <c r="A345" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B345" s="10">
+      <c r="B345" s="9">
         <v>9.828333333333333</v>
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="7" t="s">
+      <c r="A346" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="B346" s="10">
+      <c r="B346" s="9">
         <v>9.953333333333333</v>
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="7" t="s">
+      <c r="A347" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B347" s="10">
+      <c r="B347" s="9">
         <v>11.941666666666668</v>
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="7" t="s">
+      <c r="A348" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="B348" s="10">
+      <c r="B348" s="9">
         <v>10.898333333333333</v>
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="7" t="s">
+      <c r="A349" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="B349" s="10">
+      <c r="B349" s="9">
         <v>11.358333333333334</v>
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="7" t="s">
+      <c r="A350" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="B350" s="10">
+      <c r="B350" s="9">
         <v>10.57</v>
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="7" t="s">
+      <c r="A351" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="B351" s="10">
+      <c r="B351" s="9">
         <v>12.950000000000001</v>
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="7" t="s">
+      <c r="A352" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="B352" s="10">
+      <c r="B352" s="9">
         <v>13.043333333333331</v>
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="7" t="s">
+      <c r="A353" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B353" s="10">
+      <c r="B353" s="9">
         <v>10.948333333333332</v>
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="7" t="s">
+      <c r="A354" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="B354" s="10">
+      <c r="B354" s="9">
         <v>10.290000000000001</v>
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="7" t="s">
+      <c r="A355" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="B355" s="10">
+      <c r="B355" s="9">
         <v>9.91</v>
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="7" t="s">
+      <c r="A356" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="B356" s="10">
+      <c r="B356" s="9">
         <v>11.076666666666666</v>
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="7" t="s">
+      <c r="A357" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="B357" s="10">
+      <c r="B357" s="9">
         <v>10.954999999999998</v>
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="7" t="s">
+      <c r="A358" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="B358" s="10">
+      <c r="B358" s="9">
         <v>9.521666666666667</v>
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="7" t="s">
+      <c r="A359" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="B359" s="10">
+      <c r="B359" s="9">
         <v>10.631666666666666</v>
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="7" t="s">
+      <c r="A360" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B360" s="10">
+      <c r="B360" s="9">
         <v>12.443333333333333</v>
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="7" t="s">
+      <c r="A361" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="B361" s="10">
+      <c r="B361" s="9">
         <v>12.459999999999999</v>
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="7" t="s">
+      <c r="A362" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="B362" s="10">
+      <c r="B362" s="9">
         <v>12.676666666666668</v>
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="7" t="s">
+      <c r="A363" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="B363" s="10">
+      <c r="B363" s="9">
         <v>10.153333333333334</v>
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="7" t="s">
+      <c r="A364" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="B364" s="10">
+      <c r="B364" s="9">
         <v>9.256666666666668</v>
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="7" t="s">
+      <c r="A365" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="B365" s="10">
+      <c r="B365" s="9">
         <v>10.046666666666667</v>
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="7" t="s">
+      <c r="A366" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="B366" s="10">
+      <c r="B366" s="9">
         <v>8.138333333333334</v>
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="7" t="s">
+      <c r="A367" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="B367" s="10">
+      <c r="B367" s="9">
         <v>10.378333333333332</v>
       </c>
     </row>
